--- a/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06/11/2019 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>aau tap water, 5 l. dead-end filtration</t>
@@ -529,6 +534,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>05/11/2019 00:00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
@@ -592,6 +602,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>05/11/2019 00:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
@@ -660,6 +675,11 @@
           <t>kalundborg</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>04/11/2019 00:00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
@@ -725,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>06/11/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>06/11/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -859,6 +879,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>05/11/2021 00:00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>raw water, skagen vandværk. filtered 0.245 l</t>
@@ -922,6 +947,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>05/11/2021 00:00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
@@ -983,6 +1013,11 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>3110</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>05/11/2021 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>06/11/2020 00:00</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>06/11/2020 00:00</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>05/11/2021 00:00</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>05/11/2021 00:00</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>05/11/2021 00:00</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
@@ -491,6 +491,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -559,6 +564,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2019-11-05</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -627,6 +637,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2019-11-05</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -700,6 +715,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -768,6 +788,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -836,6 +861,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -904,6 +934,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -972,6 +1007,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1038,6 +1078,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">

--- a/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -498,24 +498,19 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD03232</t>
+          <t>MFD03231</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,10 +519,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>57.0472</v>
+        <v>57.0145</v>
       </c>
       <c r="D3">
-        <v>9.9397</v>
+        <v>9.9855</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,17 +531,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
+          <t>aau tap water, 5 l. dead-end filtration</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -566,7 +561,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -576,19 +571,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD03233</t>
+          <t>MFD03232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -609,7 +599,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
+          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -644,24 +634,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD03234</t>
+          <t>MFD03232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -670,10 +655,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>55.6667</v>
+        <v>57.0472</v>
       </c>
       <c r="D5">
-        <v>11.1038</v>
+        <v>9.9397</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -682,22 +667,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3110</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>kalundborg</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
+          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +697,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -727,19 +707,14 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD03500</t>
+          <t>MFD03233</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -748,10 +723,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>55.3376</v>
+        <v>57.0472</v>
       </c>
       <c r="D6">
-        <v>8.7759</v>
+        <v>9.9397</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -760,17 +735,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
+          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -790,29 +765,24 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD03501</t>
+          <t>MFD03233</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -821,10 +791,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>57.01</v>
+        <v>57.0472</v>
       </c>
       <c r="D7">
-        <v>9.9846</v>
+        <v>9.9397</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -833,17 +803,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aau vandhane vand, 5.2 l filtreret</t>
+          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -863,7 +833,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -873,19 +843,14 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD06928</t>
+          <t>MFD03234</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -894,10 +859,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>57.7227</v>
+        <v>55.6667</v>
       </c>
       <c r="D8">
-        <v>10.5499</v>
+        <v>11.1038</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -906,17 +871,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kalundborg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>raw water, skagen vandværk. filtered 0.245 l</t>
+          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -936,29 +906,24 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD06929</t>
+          <t>MFD03234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -967,10 +932,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>57.7227</v>
+        <v>55.6667</v>
       </c>
       <c r="D9">
-        <v>10.5499</v>
+        <v>11.1038</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -979,17 +944,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>kalundborg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
+          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1009,7 +979,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1019,85 +989,727 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Tap</t>
+          <t>tap water</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>MFD03500</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>55.3376</v>
+      </c>
+      <c r="D10">
+        <v>8.7759</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MFD03500</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>55.3376</v>
+      </c>
+      <c r="D11">
+        <v>8.7759</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MFD03501</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>57.01</v>
+      </c>
+      <c r="D12">
+        <v>9.9846</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>aau vandhane vand, 5.2 l filtreret</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MFD03501</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>57.01</v>
+      </c>
+      <c r="D13">
+        <v>9.9846</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>aau vandhane vand, 5.2 l filtreret</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MFD06928</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>57.7227</v>
+      </c>
+      <c r="D14">
+        <v>10.5499</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>raw water, skagen vandværk. filtered 0.245 l</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MFD06928</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>57.7227</v>
+      </c>
+      <c r="D15">
+        <v>10.5499</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>raw water, skagen vandværk. filtered 0.245 l</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MFD06929</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>57.7227</v>
+      </c>
+      <c r="D16">
+        <v>10.5499</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MFD06929</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>57.7227</v>
+      </c>
+      <c r="D17">
+        <v>10.5499</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>MFD06930</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>water(dilute)</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="C18">
         <v>57.7227</v>
       </c>
-      <c r="D10">
+      <c r="D18">
         <v>10.5499</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3110</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>2021-11-05</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>cleaned drinking water, before uv. skagen vandværk. filtered 1.75 l</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>P16_1</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>2021-11-05</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Drinking water</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Tap</t>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MFD06930</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>water(dilute)</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>57.7227</v>
+      </c>
+      <c r="D19">
+        <v>10.5499</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>cleaned drinking water, before uv. skagen vandværk. filtered 1.75 l</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>P16_1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>treated water</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_1/P16_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD03231</t>
+          <t>MFD03232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>57.0145</v>
+        <v>57.0472</v>
       </c>
       <c r="D3">
-        <v>9.9855</v>
+        <v>9.9397</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,12 +536,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aau tap water, 5 l. dead-end filtration</t>
+          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD03232</t>
+          <t>MFD03233</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
+          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD03232</t>
+          <t>MFD03234</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>57.0472</v>
+        <v>55.6667</v>
       </c>
       <c r="D5">
-        <v>9.9397</v>
+        <v>11.1038</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -670,14 +670,19 @@
           <t>3300</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>kalundborg</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>niras tap water, 7.5 l dead-end filter. 5/11-19</t>
+          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -697,12 +702,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -714,7 +719,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD03233</t>
+          <t>MFD03500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,10 +728,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>57.0472</v>
+        <v>55.3376</v>
       </c>
       <c r="D6">
-        <v>9.9397</v>
+        <v>8.7759</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -735,17 +740,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
+          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -765,7 +770,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -775,14 +780,19 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>tap water</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>filtered water</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD03233</t>
+          <t>MFD03501</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -791,10 +801,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>57.0472</v>
+        <v>57.01</v>
       </c>
       <c r="D7">
-        <v>9.9397</v>
+        <v>9.9846</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -808,12 +818,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>niras tap water, 10 l. hivosa filtration. 5/11-19</t>
+          <t>aau vandhane vand, 5.2 l filtreret</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -833,12 +843,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -850,7 +860,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD03234</t>
+          <t>MFD06928</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -859,10 +869,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>55.6667</v>
+        <v>57.7227</v>
       </c>
       <c r="D8">
-        <v>11.1038</v>
+        <v>10.5499</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -871,22 +881,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>kalundborg</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
+          <t>raw water, skagen vandværk. filtered 0.245 l</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -906,7 +911,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -916,14 +921,19 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>tap water</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD03234</t>
+          <t>MFD06929</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -932,10 +942,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>55.6667</v>
+        <v>57.7227</v>
       </c>
       <c r="D9">
-        <v>11.1038</v>
+        <v>10.5499</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -944,22 +954,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>kalundborg</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>kalundborg tap water, 10 l, hivosa filtration. 4/11-19</t>
+          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -979,24 +984,29 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>tap water</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>filtered water</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD03500</t>
+          <t>MFD06930</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1005,10 +1015,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.3376</v>
+        <v>57.7227</v>
       </c>
       <c r="D10">
-        <v>8.7759</v>
+        <v>10.5499</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1017,17 +1027,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
+          <t>cleaned drinking water, before uv. skagen vandværk. filtered 1.75 l</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1047,7 +1057,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1061,653 +1071,6 @@
         </is>
       </c>
       <c r="P10" t="inlineStr">
-        <is>
-          <t>filtered water</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MFD03500</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>55.3376</v>
-      </c>
-      <c r="D11">
-        <v>8.7759</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3130</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ribe skinnermarken vandværk. mixed filterhaller. 4 l filtreret</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>filtered water</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MFD03501</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>57.01</v>
-      </c>
-      <c r="D12">
-        <v>9.9846</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>aau vandhane vand, 5.2 l filtreret</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>tap water</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MFD03501</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>57.01</v>
-      </c>
-      <c r="D13">
-        <v>9.9846</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3300</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>aau vandhane vand, 5.2 l filtreret</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2020-11-06</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>tap water</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MFD06928</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>57.7227</v>
-      </c>
-      <c r="D14">
-        <v>10.5499</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3110</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>raw water, skagen vandværk. filtered 0.245 l</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>uncleaned/raw water</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MFD06928</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>57.7227</v>
-      </c>
-      <c r="D15">
-        <v>10.5499</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3110</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>raw water, skagen vandværk. filtered 0.245 l</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>uncleaned/raw water</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MFD06929</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>57.7227</v>
-      </c>
-      <c r="D16">
-        <v>10.5499</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3130</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>filtered water</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MFD06929</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>57.7227</v>
-      </c>
-      <c r="D17">
-        <v>10.5499</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3130</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>water after aeration, skagen vandværk. filtered 0.350 l</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>filtered water</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MFD06930</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>57.7227</v>
-      </c>
-      <c r="D18">
-        <v>10.5499</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>cleaned drinking water, before uv. skagen vandværk. filtered 1.75 l</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>treated water</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MFD06930</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>water(dilute)</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>57.7227</v>
-      </c>
-      <c r="D19">
-        <v>10.5499</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>cleaned drinking water, before uv. skagen vandværk. filtered 1.75 l</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>P16_1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2021-11-05</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>treated water</t>
         </is>
